--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544EF54E-C3BD-4C1A-ADE4-03A39DB32FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20267C36-CA9D-494E-B4BC-F6004F5F75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
@@ -1247,6 +1247,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -1390,35 +1405,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1440,9 +1430,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20267C36-CA9D-494E-B4BC-F6004F5F75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB803ECB-2FCA-4B6B-9570-6C34AE055515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6430" yWindow="3710" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Rotterdam Central Station</t>
   </si>
@@ -101,6 +101,9 @@
   <si>
     <t>Locations</t>
   </si>
+  <si>
+    <t>Schiedam</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,12 +266,23 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -276,8 +290,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -286,35 +302,13 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -331,8 +325,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,59 +642,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="14">
         <v>0</v>
       </c>
       <c r="G1" s="2">
         <v>1</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="14">
         <v>2</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="14">
         <v>3</v>
       </c>
       <c r="J1" s="2">
         <v>4</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="14">
         <v>5</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="14">
         <v>6</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="14">
         <v>7</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O1" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -709,17 +710,17 @@
       <c r="C2" s="3">
         <v>4.3628</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="16">
         <v>106086</v>
       </c>
-      <c r="E2" s="3">
-        <v>115.921828</v>
+      <c r="E2" s="6">
+        <v>111.3943675892596</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="6" cm="1">
-        <f t="array" ref="G2:N2">TRANSPOSE(F3:F10)</f>
+        <f t="array" ref="G2:O2">TRANSPOSE(F3:F11)</f>
         <v>1</v>
       </c>
       <c r="H2" s="6">
@@ -732,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
@@ -743,8 +744,11 @@
       <c r="N2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -757,8 +761,8 @@
       <c r="D3" s="3">
         <v>562839</v>
       </c>
-      <c r="E3" s="3">
-        <v>615.02296009999998</v>
+      <c r="E3" s="7">
+        <v>591.0025305843493</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -767,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" cm="1">
-        <f t="array" ref="H3:N3">TRANSPOSE(G4:G10)</f>
+        <f t="array" ref="H3:O3">TRANSPOSE(G4:G11)</f>
         <v>0</v>
       </c>
       <c r="I3" s="7">
@@ -783,13 +787,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,8 @@
       <c r="D4" s="3">
         <v>121434</v>
       </c>
-      <c r="E4" s="3">
-        <v>132.69282720000001</v>
+      <c r="E4" s="7">
+        <v>127.51035606804055</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -815,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" cm="1">
-        <f t="array" ref="I4:N4">TRANSPOSE(H5:H10)</f>
+        <f t="array" ref="I4:O4">TRANSPOSE(H5:H11)</f>
         <v>0</v>
       </c>
       <c r="J4" s="7">
@@ -833,8 +840,11 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -847,8 +857,8 @@
       <c r="D5" s="3">
         <v>75316</v>
       </c>
-      <c r="E5" s="3">
-        <v>82.298968740000007</v>
+      <c r="E5" s="7">
+        <v>79.084687794361898</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -863,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" cm="1">
-        <f t="array" ref="J5:N5">TRANSPOSE(I6:I10)</f>
+        <f t="array" ref="J5:O5">TRANSPOSE(I6:I11)</f>
         <v>1</v>
       </c>
       <c r="K5" s="7">
@@ -876,10 +886,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -892,8 +905,8 @@
       <c r="D6" s="3">
         <v>663900</v>
       </c>
-      <c r="E6" s="3">
-        <v>725.45389220000004</v>
+      <c r="E6" s="7">
+        <v>697.12045550317146</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -911,11 +924,11 @@
         <v>0</v>
       </c>
       <c r="K6" s="7" cm="1">
-        <f t="array" ref="K6:N6">TRANSPOSE(J7:J10)</f>
+        <f t="array" ref="K6:O6">TRANSPOSE(J7:J11)</f>
         <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -923,201 +936,250 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51.922169570000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.4098035900000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>77999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>81.901940666955682</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" cm="1">
+        <f t="array" ref="L7:O7">TRANSPOSE(K8:K11)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>51.845799999999997</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>4.3212999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>72561</v>
       </c>
-      <c r="E7" s="3">
-        <v>79.288537239999997</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" cm="1">
-        <f t="array" ref="L7:N7">TRANSPOSE(K8:K10)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="E8" s="7">
+        <v>76.191832161117077</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" cm="1">
+        <f t="array" ref="M8:O8">TRANSPOSE(L9:L11)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>51.9129</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>4.3623000000000003</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>75079</v>
       </c>
-      <c r="E8" s="3">
-        <v>82.039995140000002</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" cm="1">
-        <f t="array" ref="M8:N8">TRANSPOSE(L9:L10)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="E9" s="7">
+        <v>78.835828707218866</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" cm="1">
+        <f t="array" ref="N9:O9">TRANSPOSE(M10:M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>51.999200000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>4.2088999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>114887</v>
       </c>
-      <c r="E9" s="3">
-        <v>125.5388181</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" cm="1">
-        <f t="array" ref="N9">TRANSPOSE(M10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="E10" s="7">
+        <v>120.63575504050739</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" cm="1">
+        <f t="array" ref="O10">TRANSPOSE(N11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>52.057400000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>4.4936999999999996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>126998</v>
       </c>
-      <c r="E10" s="3">
-        <v>138.77269680000001</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="7">
+        <v>133.35276940501848</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1130,6 +1192,9 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>

--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB803ECB-2FCA-4B6B-9570-6C34AE055515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD418AD2-C69E-4D7A-8B48-C01481F78521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6430" yWindow="3710" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="860" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Rotterdam Central Station</t>
   </si>
@@ -104,12 +104,27 @@
   <si>
     <t>Schiedam</t>
   </si>
+  <si>
+    <t>Rotterdam Lombardijen</t>
+  </si>
+  <si>
+    <t>Rotterdam Noord</t>
+  </si>
+  <si>
+    <t>Rotterdam Zuid</t>
+  </si>
+  <si>
+    <t>Rotterdam Alexander</t>
+  </si>
+  <si>
+    <t>Rotterdam Blaak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +146,20 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -164,16 +193,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -185,8 +212,90 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,104 +305,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -308,26 +319,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,658 +669,1121 @@
     <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="14">
+      <c r="F1" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16">
+        <v>1</v>
+      </c>
+      <c r="H1" s="16">
         <v>2</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="16">
         <v>3</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="16">
         <v>4</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="16">
         <v>5</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="16">
         <v>6</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="16">
         <v>7</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="16">
         <v>8</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="P1" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>11</v>
+      </c>
+      <c r="R1" s="16">
+        <v>12</v>
+      </c>
+      <c r="S1" s="16">
+        <v>13</v>
+      </c>
+      <c r="T1" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>51.999000000000002</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>4.3628</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="8">
         <v>106086</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="23">
         <v>111.3943675892596</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" cm="1">
-        <f t="array" ref="G2:O2">TRANSPOSE(F3:F11)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18" cm="1">
+        <f t="array" ref="G2:T2">TRANSPOSE(F3:F16)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>1</v>
+      </c>
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>52.070500000000003</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.3007</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>562839</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="22">
         <v>591.0025305843493</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" cm="1">
-        <f t="array" ref="H3:O3">TRANSPOSE(G4:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" cm="1">
+        <f t="array" ref="H3:T3">TRANSPOSE(G4:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>1</v>
+      </c>
+      <c r="T3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>51.813299999999998</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4.6905000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>121434</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="22">
         <v>127.51035606804055</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" cm="1">
-        <f t="array" ref="I4:O4">TRANSPOSE(H5:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" cm="1">
+        <f t="array" ref="I4:T4">TRANSPOSE(H5:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>52.0167</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4.7083000000000004</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>75316</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="22">
         <v>79.084687794361898</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" cm="1">
-        <f t="array" ref="J5:O5">TRANSPOSE(I6:I11)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" cm="1">
+        <f t="array" ref="J5:T5">TRANSPOSE(I6:I16)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21">
+        <v>51.952199999999998</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4.5518999999999998</v>
+      </c>
+      <c r="D6" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E6" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" cm="1">
+        <f t="array" ref="K6:T6">TRANSPOSE(J7:J16)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21">
+        <v>51.92</v>
+      </c>
+      <c r="C7" s="22">
+        <v>4.4890999999999996</v>
+      </c>
+      <c r="D7" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E7" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" cm="1">
+        <f t="array" ref="L7:T7">TRANSPOSE(K8:K16)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>1</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
         <v>51.922499999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="2">
         <v>4.4794</v>
       </c>
-      <c r="D6" s="3">
-        <v>663900</v>
-      </c>
-      <c r="E6" s="7">
-        <v>697.12045550317146</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" cm="1">
-        <f t="array" ref="K6:O6">TRANSPOSE(J7:J11)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="D8" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E8" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" cm="1">
+        <f t="array" ref="M8:T8">TRANSPOSE(L9:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21">
+        <v>51.880600000000001</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4.5313999999999997</v>
+      </c>
+      <c r="D9" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E9" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" cm="1">
+        <f t="array" ref="N9:T9">TRANSPOSE(M10:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="21">
+        <v>51.942100000000003</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4.4814999999999996</v>
+      </c>
+      <c r="D10" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E10" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6" cm="1">
+        <f t="array" ref="O10:T10">TRANSPOSE(N11:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21">
+        <v>51.905000000000001</v>
+      </c>
+      <c r="C11" s="22">
+        <v>4.5098000000000003</v>
+      </c>
+      <c r="D11" s="22">
+        <v>110650</v>
+      </c>
+      <c r="E11" s="22">
+        <v>116.18674258386183</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" cm="1">
+        <f t="array" ref="P11:T11">TRANSPOSE(O12:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B12" s="10">
         <v>51.922169570000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C12" s="2">
         <v>4.4098035900000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D12" s="2">
         <v>77999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E12" s="22">
         <v>81.901940666955682</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" cm="1">
-        <f t="array" ref="L7:O7">TRANSPOSE(K8:K11)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6" cm="1">
+        <f t="array" ref="Q12:T12">TRANSPOSE(P13:P16)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B13" s="10">
         <v>51.845799999999997</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C13" s="2">
         <v>4.3212999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D13" s="2">
         <v>72561</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E13" s="22">
         <v>76.191832161117077</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" cm="1">
-        <f t="array" ref="M8:O8">TRANSPOSE(L9:L11)</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19" cm="1">
+        <f t="array" ref="R13:T13">TRANSPOSE(Q14:Q16)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B14" s="10">
         <v>51.9129</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C14" s="2">
         <v>4.3623000000000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D14" s="2">
         <v>75079</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E14" s="22">
         <v>78.835828707218866</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" cm="1">
-        <f t="array" ref="N9:O9">TRANSPOSE(M10:M11)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19" cm="1">
+        <f t="array" ref="S14:T14">TRANSPOSE(R15:R16)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B15" s="10">
         <v>51.999200000000002</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C15" s="2">
         <v>4.2088999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D15" s="2">
         <v>114887</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E15" s="22">
         <v>120.63575504050739</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" cm="1">
-        <f t="array" ref="O10">TRANSPOSE(N11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19" cm="1">
+        <f t="array" ref="T15">TRANSPOSE(S16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B16" s="10">
         <v>52.057400000000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C16" s="2">
         <v>4.4936999999999996</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D16" s="2">
         <v>126998</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E16" s="22">
         <v>133.35276940501848</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD418AD2-C69E-4D7A-8B48-C01481F78521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC595D3-CF12-43A2-B218-15BC187939D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="860" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection sqref="A1:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,21 +1791,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -1949,10 +1934,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1974,19 +1984,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D24A97-F9A9-4D04-A3AA-C3CA3C165D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE1FA0-D63B-44F9-BD89-35D9F28B0ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Rotterdam Central Station</t>
-  </si>
   <si>
     <t>Delft</t>
   </si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Office Periphery</t>
+  </si>
+  <si>
+    <t>Rotterdam Centraal</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,19 +766,19 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="5">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="23">
         <v>51.999000000000002</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="25">
         <v>52.070500000000003</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="25">
         <v>51.813299999999998</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="25">
         <v>52.0167</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="27">
         <v>51.934759649999997</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="29">
         <v>51.952199999999998</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="29">
         <v>51.92</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B9" s="25">
         <v>51.922499999999999</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="29">
         <v>51.880600000000001</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="29">
         <v>51.942100000000003</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="29">
         <v>51.905000000000001</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="25">
         <v>51.922169570000001</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="25">
         <v>51.845799999999997</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="25">
         <v>51.9129</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="25">
         <v>51.999200000000002</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="17" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="25">
         <v>52.057400000000001</v>
@@ -2000,21 +2000,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -2158,10 +2143,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2183,19 +2193,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data_files/Rotterdam_car_adjacency.xlsx
+++ b/Data_files/Rotterdam_car_adjacency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2550C-0543-4ADA-B842-5430B5FB4AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3EC05-E381-4403-89B5-4DA99DDA7187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="18">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>80.664968396488433</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1791,21 +1791,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -1949,10 +1934,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1974,19 +1984,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47226C14-663C-468E-81A1-C92460C7FBF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4089522E-0C82-47E8-A49E-84CDA0FE73C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>